--- a/Modelos em Python/ljung_vld.xlsx
+++ b/Modelos em Python/ljung_vld.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.205</t>
+          <t xml:space="preserve"> 7.882</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.976</t>
+          <t>0.640</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.580</t>
+          <t xml:space="preserve"> 3.140</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.917</t>
+          <t>0.978</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.658</t>
+          <t xml:space="preserve"> 1.650</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.988</t>
+          <t>0.998</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.237</t>
+          <t xml:space="preserve"> 5.574</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.795</t>
+          <t>0.850</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.543</t>
+          <t xml:space="preserve"> 3.320</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.852</t>
+          <t>0.973</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15.812</t>
+          <t xml:space="preserve"> 7.288</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.698</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.194</t>
+          <t xml:space="preserve"> 0.055</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.425</t>
+          <t xml:space="preserve"> 0.089</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.999</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_vld.xlsx
+++ b/Modelos em Python/ljung_vld.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.882</t>
+          <t xml:space="preserve"> 7.468</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.640</t>
+          <t>0.681</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.140</t>
+          <t xml:space="preserve"> 2.428</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.978</t>
+          <t>0.992</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.650</t>
+          <t xml:space="preserve"> 1.387</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.998</t>
+          <t>0.999</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.574</t>
+          <t xml:space="preserve"> 5.416</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.850</t>
+          <t>0.862</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.320</t>
+          <t xml:space="preserve"> 4.038</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.973</t>
+          <t>0.946</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.288</t>
+          <t xml:space="preserve"> 6.770</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.698</t>
+          <t>0.747</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.055</t>
+          <t xml:space="preserve"> 0.021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.089</t>
+          <t xml:space="preserve"> 0.043</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">

--- a/Modelos em Python/ljung_vld.xlsx
+++ b/Modelos em Python/ljung_vld.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.468</t>
+          <t xml:space="preserve"> 7.882</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.681</t>
+          <t>0.640</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.428</t>
+          <t xml:space="preserve"> 3.140</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.992</t>
+          <t>0.978</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.387</t>
+          <t xml:space="preserve"> 1.650</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.999</t>
+          <t>0.998</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.416</t>
+          <t xml:space="preserve"> 5.574</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.862</t>
+          <t>0.850</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.038</t>
+          <t xml:space="preserve"> 3.194</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.946</t>
+          <t>0.976</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.770</t>
+          <t xml:space="preserve"> 7.268</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.747</t>
+          <t>0.700</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.021</t>
+          <t xml:space="preserve"> 0.055</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.043</t>
+          <t xml:space="preserve"> 0.089</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">

--- a/Modelos em Python/ljung_vld.xlsx
+++ b/Modelos em Python/ljung_vld.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.194</t>
+          <t xml:space="preserve"> 3.320</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.976</t>
+          <t>0.973</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.268</t>
+          <t xml:space="preserve"> 7.288</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.698</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_vld.xlsx
+++ b/Modelos em Python/ljung_vld.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.882</t>
+          <t xml:space="preserve"> 3.205</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.640</t>
+          <t>0.976</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.140</t>
+          <t xml:space="preserve"> 4.580</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.978</t>
+          <t>0.917</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.650</t>
+          <t xml:space="preserve"> 2.658</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.998</t>
+          <t>0.988</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.574</t>
+          <t xml:space="preserve"> 6.237</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.850</t>
+          <t>0.795</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.320</t>
+          <t xml:space="preserve"> 5.543</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.973</t>
+          <t>0.852</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.288</t>
+          <t>14.345</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.698</t>
+          <t>0.158</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.055</t>
+          <t xml:space="preserve"> 0.194</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.089</t>
+          <t xml:space="preserve"> 0.465</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">

--- a/Modelos em Python/ljung_vld.xlsx
+++ b/Modelos em Python/ljung_vld.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.205</t>
+          <t xml:space="preserve"> 6.113</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.976</t>
+          <t>0.806</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.580</t>
+          <t xml:space="preserve"> 5.805</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.917</t>
+          <t>0.831</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.658</t>
+          <t xml:space="preserve"> 5.764</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.988</t>
+          <t>0.835</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.237</t>
+          <t xml:space="preserve"> 2.954</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.795</t>
+          <t>0.982</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.543</t>
+          <t xml:space="preserve"> 9.120</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.852</t>
+          <t>0.521</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14.345</t>
+          <t>20.689</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.158</t>
+          <t>0.023</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.194</t>
+          <t xml:space="preserve"> 0.290</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.465</t>
+          <t xml:space="preserve"> 0.496</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">

--- a/Modelos em Python/ljung_vld.xlsx
+++ b/Modelos em Python/ljung_vld.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.113</t>
+          <t xml:space="preserve"> 7.468</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.806</t>
+          <t>0.681</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.805</t>
+          <t xml:space="preserve"> 2.428</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.831</t>
+          <t>0.992</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.764</t>
+          <t xml:space="preserve"> 1.387</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.835</t>
+          <t>0.999</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.954</t>
+          <t xml:space="preserve"> 5.416</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.982</t>
+          <t>0.862</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.120</t>
+          <t xml:space="preserve"> 4.038</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.521</t>
+          <t>0.946</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20.689</t>
+          <t xml:space="preserve"> 4.447</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.925</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.290</t>
+          <t xml:space="preserve"> 0.021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.496</t>
+          <t xml:space="preserve"> 0.044</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">

--- a/Modelos em Python/ljung_vld.xlsx
+++ b/Modelos em Python/ljung_vld.xlsx
@@ -1,43 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/franchesco_sanches_pucpr_edu_br/Documents/Documents/GitHub/Mestre-Tchesko/Modelos em Python/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_6A69D6BF8710DF574DB07BD14C3088B35299F781" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2DCE89E-96A9-4F3C-851B-C93734518F85}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Estatística de Teste</t>
+  </si>
+  <si>
+    <t>Valor De p</t>
+  </si>
+  <si>
+    <t>ARX</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>ARMA</t>
+  </si>
+  <si>
+    <t>ARIMA</t>
+  </si>
+  <si>
+    <t>SARIMA</t>
+  </si>
+  <si>
+    <t>ARIMAX</t>
+  </si>
+  <si>
+    <t>SARIMAX</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +87,30 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,165 +398,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Estatística de Teste</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Valor De p</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>ARX</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.468</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.681</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.428</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.992</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>MA</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.387</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.416</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.862</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.038</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.946</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>SARIMA</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.447</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0.925</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>ARIMAX</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.021</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>SARIMAX</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.044</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.4279999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7.468</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.387</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.4160000000000004</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.0380000000000003</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.4470000000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/ljung_vld.xlsx
+++ b/Modelos em Python/ljung_vld.xlsx
@@ -1,85 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/franchesco_sanches_pucpr_edu_br/Documents/Documents/GitHub/Mestre-Tchesko/Modelos em Python/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_6A69D6BF8710DF574DB07BD14C3088B35299F781" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2DCE89E-96A9-4F3C-851B-C93734518F85}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Estatística de Teste</t>
-  </si>
-  <si>
-    <t>Valor De p</t>
-  </si>
-  <si>
-    <t>ARX</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>ARMA</t>
-  </si>
-  <si>
-    <t>ARIMA</t>
-  </si>
-  <si>
-    <t>SARIMA</t>
-  </si>
-  <si>
-    <t>ARIMAX</t>
-  </si>
-  <si>
-    <t>SARIMAX</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,30 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -398,112 +420,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2.4279999999999999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.99199999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7.468</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.68100000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.387</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5.4160000000000004</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.86199999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4.0380000000000003</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.94599999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4.4470000000000001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.92500000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Estatística de Teste</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Valor De p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ARX</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.468</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.681</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.428</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.992</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.387</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.999</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ARMA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.862</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ARIMA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.125</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.942</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SARIMA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.723</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.909</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ARIMAX</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>SARIMAX</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.044</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/ljung_vld.xlsx
+++ b/Modelos em Python/ljung_vld.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.468</t>
+          <t>10.259</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.681</t>
+          <t>0.418</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.428</t>
+          <t>15.848</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.992</t>
+          <t>0.828</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.387</t>
+          <t>10.572</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.999</t>
+          <t>0.392</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.413</t>
+          <t xml:space="preserve"> 5.623</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.862</t>
+          <t>0.846</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.125</t>
+          <t xml:space="preserve"> 5.623</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.942</t>
+          <t>0.846</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.723</t>
+          <t>17.248</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.909</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.021</t>
+          <t>98.823</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.044</t>
+          <t>53.438</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_vld.xlsx
+++ b/Modelos em Python/ljung_vld.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10.259</t>
+          <t xml:space="preserve"> 7.468</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.418</t>
+          <t>0.681</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15.848</t>
+          <t xml:space="preserve"> 2.428</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.828</t>
+          <t>0.992</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10.572</t>
+          <t xml:space="preserve"> 1.387</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.392</t>
+          <t>0.999</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.623</t>
+          <t xml:space="preserve"> 5.413</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.846</t>
+          <t>0.862</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.623</t>
+          <t xml:space="preserve"> 4.125</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.846</t>
+          <t>0.942</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17.248</t>
+          <t xml:space="preserve"> 7.684</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.660</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>98.823</t>
+          <t xml:space="preserve"> 0.021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>53.438</t>
+          <t xml:space="preserve"> 0.043</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_vld.xlsx
+++ b/Modelos em Python/ljung_vld.xlsx
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.684</t>
+          <t xml:space="preserve"> 4.723</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.660</t>
+          <t>0.909</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.043</t>
+          <t xml:space="preserve"> 0.044</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">

--- a/Modelos em Python/ljung_vld.xlsx
+++ b/Modelos em Python/ljung_vld.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.468</t>
+          <t>85.186</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.681</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.428</t>
+          <t>84.360</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.992</t>
+          <t>0.930</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.387</t>
+          <t>46.252</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.999</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.413</t>
+          <t xml:space="preserve"> 7.515</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.862</t>
+          <t>0.676</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.125</t>
+          <t xml:space="preserve"> 7.738</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.942</t>
+          <t>0.654</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.723</t>
+          <t>28.998</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.909</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.021</t>
+          <t>61.903</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.044</t>
+          <t>05.099</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_vld.xlsx
+++ b/Modelos em Python/ljung_vld.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.108</t>
+          <t xml:space="preserve"> 6.478</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.884</t>
+          <t>0.774</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.360</t>
+          <t xml:space="preserve"> 7.293</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.930</t>
+          <t>0.698</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>46.252</t>
+          <t>41.081</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.515</t>
+          <t xml:space="preserve"> 5.604</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.676</t>
+          <t>0.847</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.738</t>
+          <t xml:space="preserve"> 7.804</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.654</t>
+          <t>0.648</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>28.998</t>
+          <t>76.605</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>06.115</t>
+          <t>11.103</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.350</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.443</t>
+          <t>95.836</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.925</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_vld.xlsx
+++ b/Modelos em Python/ljung_vld.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.478</t>
+          <t xml:space="preserve"> 6.514</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.774</t>
+          <t>0.770</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.293</t>
+          <t xml:space="preserve"> 0.764</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.698</t>
+          <t>0.376</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>41.081</t>
+          <t>76.952</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.604</t>
+          <t xml:space="preserve"> 4.900</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.847</t>
+          <t>0.898</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.804</t>
+          <t>11.025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.648</t>
+          <t>0.356</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>76.605</t>
+          <t>68.136</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,12 +555,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11.103</t>
+          <t>10.809</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.350</t>
+          <t>0.373</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>95.836</t>
+          <t>13.287</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
